--- a/DataTable/101游戏设置.xlsx
+++ b/DataTable/101游戏设置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E71FB5E-3144-4702-B810-941060187171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6128436-FE27-458F-BF15-E4FE47E3100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,14 +407,14 @@
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
